--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_18_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_18_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164515.0608733815</v>
+        <v>247432.4403772702</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14758048.2846054</v>
+        <v>15364668.20581513</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6406674.300327988</v>
+        <v>6131217.196024558</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.848256208035304</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>43.85944218949135</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>49.79500702712463</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.848256208035243</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.848256208035304</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>49.79500702712463</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>49.79500702712463</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="T6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>43.85944218949135</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>43.8594421894914</v>
       </c>
     </row>
     <row r="7">
@@ -1141,67 +1141,67 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>81.61928733384123</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>92.6649492891022</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,70 +1214,70 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>92.6649492891022</v>
+      </c>
+      <c r="W9" t="n">
         <v>81.61928733384123</v>
       </c>
-      <c r="F9" t="n">
+      <c r="X9" t="n">
         <v>92.6649492891022</v>
-      </c>
-      <c r="G9" t="n">
-        <v>92.6649492891022</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>92.6649492891022</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>116.8405921356967</v>
       </c>
       <c r="G11" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>29.0087478103194</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1637893657753</v>
+        <v>57.85866725808015</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="V12" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>52.21594625443404</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>52.21594625443466</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.396723986041168</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>77.0817190166639</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T14" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="U14" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W14" t="n">
-        <v>88.09081815943036</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>43.8258359883228</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V15" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W15" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>32.54455978945957</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>134.2169270115375</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>310.0661072569077</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>143.5836595683023</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.5254541783477</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>165.1725371760942</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>63.68647682501456</v>
+        <v>47.607978322374</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>187.5255871663195</v>
       </c>
     </row>
     <row r="19">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>52.21594625443404</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>40.24056435788011</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="E20" t="n">
-        <v>380.1755759643999</v>
+        <v>165.1725371760943</v>
       </c>
       <c r="F20" t="n">
-        <v>349.7613315028356</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>380.1755759643999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>42.02962767478984</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.28561341314773</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>193.9718079957399</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>47.60797832237445</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>187.5255871663197</v>
       </c>
     </row>
     <row r="22">
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>117.3347467287049</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U23" t="n">
-        <v>189.1723762791055</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>9.15330696641159</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>133.6980886148209</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.8205739680685</v>
@@ -2462,10 +2462,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>70.40485311038451</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>185.62795066089</v>
+        <v>253.5662956453861</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>304.8766539733321</v>
       </c>
       <c r="G26" t="n">
         <v>411.8707348436268</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>188.3689046878866</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>102.6488674211757</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T27" t="n">
         <v>192.7632183107638</v>
@@ -2699,10 +2699,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>5.618990993261026</v>
       </c>
     </row>
     <row r="28">
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>10.65001222176758</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>185.62795066089</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>133.5705004000209</v>
       </c>
       <c r="I29" t="n">
-        <v>54.94528993369883</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2873,22 +2873,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>55.31717029709988</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.229391180115301</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U30" t="n">
         <v>225.8205739680685</v>
@@ -2936,7 +2936,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>185.62795066089</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>185.9158911817642</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,16 +3031,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>335.8829076213008</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>327.0920435730709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.64611447093194</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3116,16 +3116,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H33" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>192.7632183107638</v>
+        <v>188.8101320121752</v>
       </c>
       <c r="U33" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>185.62795066089</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>178.1144279563373</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>307.1442478716875</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>178.028201701293</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3356,13 +3356,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>165.3461923380901</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>143.9712799055783</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>220.013305673653</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>185.9158911817642</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>208.8394362011767</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>120.6602770288404</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>73.31651733578099</v>
+        <v>108.1419293058067</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>104.3491676166091</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>220.013305673653</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I41" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>365.1354126858509</v>
+        <v>118.781491222448</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>92.30935033271857</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3884,7 +3884,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>120.0505173894759</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>79.19447250981592</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>220.013305673653</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>134.1907930857594</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>232.9265427082688</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>106.0588020198886</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U45" t="n">
         <v>225.8205739680685</v>
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>197.6152920415543</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>56.37860488577027</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>185.9158911817641</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.850526024831893</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>19.82590800208273</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>69.12296495893611</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>118.4200219157895</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>156.7444867130883</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>156.7444867130883</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>156.7444867130883</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>156.7444867130883</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>156.7444867130883</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>106.4464998170029</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>106.4464998170029</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>106.4464998170029</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>56.14851292091738</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>56.14851292091738</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.850526024831893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.28158745825545</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>50.30614171732423</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99.60319867417761</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>148.900255631031</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>198.1973125878844</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199.1800281084985</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>199.1800281084985</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>199.1800281084985</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>154.8775612504264</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>104.5795743543409</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>54.28158745825545</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>54.28158745825545</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>54.28158745825545</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>54.28158745825545</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>54.28158745825545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56.14851292091738</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="C5" t="n">
         <v>56.14851292091738</v>
@@ -4552,67 +4552,67 @@
         <v>56.14851292091738</v>
       </c>
       <c r="E5" t="n">
-        <v>5.850526024831893</v>
+        <v>5.850526024831836</v>
       </c>
       <c r="F5" t="n">
-        <v>5.850526024831893</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G5" t="n">
-        <v>5.850526024831893</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H5" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I5" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J5" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K5" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L5" t="n">
         <v>19.82590800208273</v>
       </c>
       <c r="M5" t="n">
-        <v>69.12296495893611</v>
+        <v>69.12296495893617</v>
       </c>
       <c r="N5" t="n">
-        <v>118.4200219157895</v>
+        <v>118.4200219157896</v>
       </c>
       <c r="O5" t="n">
-        <v>156.7444867130883</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="P5" t="n">
-        <v>156.7444867130883</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="Q5" t="n">
-        <v>156.7444867130883</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="R5" t="n">
-        <v>156.7444867130883</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="S5" t="n">
-        <v>156.7444867130883</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="T5" t="n">
+        <v>156.7444867130885</v>
+      </c>
+      <c r="U5" t="n">
+        <v>156.7444867130885</v>
+      </c>
+      <c r="V5" t="n">
         <v>106.4464998170029</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>106.4464998170029</v>
       </c>
-      <c r="V5" t="n">
-        <v>56.14851292091738</v>
-      </c>
-      <c r="W5" t="n">
-        <v>56.14851292091738</v>
-      </c>
       <c r="X5" t="n">
-        <v>56.14851292091738</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="Y5" t="n">
-        <v>56.14851292091738</v>
+        <v>106.4464998170029</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.28158745825545</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C6" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D6" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E6" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F6" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G6" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H6" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I6" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J6" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K6" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L6" t="n">
-        <v>50.30614171732423</v>
+        <v>50.30614171732424</v>
       </c>
       <c r="M6" t="n">
-        <v>99.60319867417761</v>
+        <v>99.60319867417768</v>
       </c>
       <c r="N6" t="n">
-        <v>121.1430747948175</v>
+        <v>121.1430747948177</v>
       </c>
       <c r="O6" t="n">
-        <v>170.4401317516709</v>
+        <v>170.4401317516711</v>
       </c>
       <c r="P6" t="n">
-        <v>199.1800281084985</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.1800281084985</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R6" t="n">
-        <v>199.1800281084985</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S6" t="n">
-        <v>148.882041212413</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="T6" t="n">
-        <v>98.58405431632752</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="U6" t="n">
-        <v>54.28158745825545</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="V6" t="n">
-        <v>54.28158745825545</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="W6" t="n">
-        <v>54.28158745825545</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="X6" t="n">
-        <v>54.28158745825545</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="Y6" t="n">
-        <v>54.28158745825545</v>
+        <v>3.983600562169975</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="M7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="N7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="O7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="P7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="R7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="S7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="T7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="U7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="V7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="W7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="X7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89.85692052276578</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C8" t="n">
-        <v>89.85692052276578</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D8" t="n">
-        <v>89.85692052276578</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E8" t="n">
         <v>7.413195943128176</v>
@@ -4813,7 +4813,7 @@
         <v>75.16870670940374</v>
       </c>
       <c r="M8" t="n">
-        <v>166.9070065056148</v>
+        <v>166.9070065056149</v>
       </c>
       <c r="N8" t="n">
         <v>258.6453063018261</v>
@@ -4828,28 +4828,28 @@
         <v>370.6597971564088</v>
       </c>
       <c r="R8" t="n">
-        <v>277.0588382785278</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S8" t="n">
-        <v>183.4578794006468</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="T8" t="n">
-        <v>183.4578794006468</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="U8" t="n">
-        <v>183.4578794006468</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="V8" t="n">
-        <v>183.4578794006468</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="W8" t="n">
-        <v>89.85692052276578</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X8" t="n">
-        <v>89.85692052276578</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y8" t="n">
-        <v>89.85692052276578</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>277.0588382785278</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C9" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D9" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E9" t="n">
-        <v>194.6151136988902</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F9" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G9" t="n">
         <v>7.413195943128176</v>
@@ -4889,13 +4889,13 @@
         <v>28.29609765201163</v>
       </c>
       <c r="L9" t="n">
-        <v>43.08143125983008</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M9" t="n">
-        <v>134.8197310560413</v>
+        <v>194.4365770611079</v>
       </c>
       <c r="N9" t="n">
-        <v>226.5580308522524</v>
+        <v>286.1748768573191</v>
       </c>
       <c r="O9" t="n">
         <v>317.2247932514005</v>
@@ -4916,19 +4916,19 @@
         <v>370.6597971564088</v>
       </c>
       <c r="U9" t="n">
-        <v>277.0588382785278</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="V9" t="n">
         <v>277.0588382785278</v>
       </c>
       <c r="W9" t="n">
-        <v>277.0588382785278</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="X9" t="n">
-        <v>277.0588382785278</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y9" t="n">
-        <v>277.0588382785278</v>
+        <v>101.0141548210092</v>
       </c>
     </row>
     <row r="10">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>560.6825636487954</v>
+        <v>511.8624171433416</v>
       </c>
       <c r="C11" t="n">
-        <v>560.6825636487954</v>
+        <v>511.8624171433416</v>
       </c>
       <c r="D11" t="n">
-        <v>393.8416170062754</v>
+        <v>511.8624171433416</v>
       </c>
       <c r="E11" t="n">
-        <v>204.4218319897905</v>
+        <v>511.8624171433416</v>
       </c>
       <c r="F11" t="n">
-        <v>204.4218319897905</v>
+        <v>393.8416170062743</v>
       </c>
       <c r="G11" t="n">
-        <v>15.0020469733056</v>
+        <v>204.42183198979</v>
       </c>
       <c r="H11" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I11" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159058969</v>
+        <v>80.8121315905891</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079178</v>
       </c>
       <c r="M11" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644746</v>
       </c>
       <c r="N11" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123819</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985586</v>
+        <v>649.484525998557</v>
       </c>
       <c r="P11" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020252</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="R11" t="n">
-        <v>750.1023486652803</v>
+        <v>672.2420264262237</v>
       </c>
       <c r="S11" t="n">
-        <v>750.1023486652803</v>
+        <v>511.8624171433416</v>
       </c>
       <c r="T11" t="n">
-        <v>750.1023486652803</v>
+        <v>511.8624171433416</v>
       </c>
       <c r="U11" t="n">
-        <v>750.1023486652803</v>
+        <v>511.8624171433416</v>
       </c>
       <c r="V11" t="n">
-        <v>750.1023486652803</v>
+        <v>511.8624171433416</v>
       </c>
       <c r="W11" t="n">
-        <v>560.6825636487954</v>
+        <v>511.8624171433416</v>
       </c>
       <c r="X11" t="n">
-        <v>560.6825636487954</v>
+        <v>511.8624171433416</v>
       </c>
       <c r="Y11" t="n">
-        <v>560.6825636487954</v>
+        <v>511.8624171433416</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>181.8429936158255</v>
+        <v>219.9797031869056</v>
       </c>
       <c r="C12" t="n">
-        <v>181.8429936158255</v>
+        <v>219.9797031869056</v>
       </c>
       <c r="D12" t="n">
-        <v>181.8429936158255</v>
+        <v>219.9797031869056</v>
       </c>
       <c r="E12" t="n">
-        <v>181.8429936158255</v>
+        <v>219.9797031869056</v>
       </c>
       <c r="F12" t="n">
-        <v>152.5412281508565</v>
+        <v>73.44514521379057</v>
       </c>
       <c r="G12" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H12" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I12" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J12" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="K12" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L12" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N12" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P12" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017051</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="R12" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="S12" t="n">
-        <v>750.1023486652803</v>
+        <v>598.8192732198744</v>
       </c>
       <c r="T12" t="n">
-        <v>750.1023486652803</v>
+        <v>598.8192732198744</v>
       </c>
       <c r="U12" t="n">
-        <v>560.6825636487954</v>
+        <v>409.39948820339</v>
       </c>
       <c r="V12" t="n">
-        <v>371.2627786323105</v>
+        <v>409.39948820339</v>
       </c>
       <c r="W12" t="n">
-        <v>181.8429936158255</v>
+        <v>219.9797031869056</v>
       </c>
       <c r="X12" t="n">
-        <v>181.8429936158255</v>
+        <v>219.9797031869056</v>
       </c>
       <c r="Y12" t="n">
-        <v>181.8429936158255</v>
+        <v>219.9797031869056</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="D13" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="E13" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="F13" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="G13" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H13" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I13" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J13" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="K13" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M13" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N13" t="n">
-        <v>66.41847329396353</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="V13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="W13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="X13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C14" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D14" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E14" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F14" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G14" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H14" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I14" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079185</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123825</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O14" t="n">
-        <v>649.4845259985575</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020256</v>
+        <v>734.461172602026</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R14" t="n">
-        <v>672.2420264262241</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S14" t="n">
-        <v>672.2420264262241</v>
+        <v>589.7227393823969</v>
       </c>
       <c r="T14" t="n">
-        <v>482.8222414097396</v>
+        <v>400.3029543659123</v>
       </c>
       <c r="U14" t="n">
-        <v>293.4024563932551</v>
+        <v>400.3029543659123</v>
       </c>
       <c r="V14" t="n">
-        <v>103.9826713767706</v>
+        <v>210.8831693494277</v>
       </c>
       <c r="W14" t="n">
-        <v>15.00204697330557</v>
+        <v>210.8831693494277</v>
       </c>
       <c r="X14" t="n">
-        <v>15.00204697330557</v>
+        <v>210.8831693494277</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.00204697330557</v>
+        <v>21.46338433294312</v>
       </c>
     </row>
     <row r="15">
@@ -5333,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>371.2627786323095</v>
+        <v>338.3894859156838</v>
       </c>
       <c r="C15" t="n">
-        <v>196.8097493511825</v>
+        <v>163.9364566345568</v>
       </c>
       <c r="D15" t="n">
-        <v>152.5412281508564</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E15" t="n">
-        <v>152.5412281508564</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F15" t="n">
-        <v>152.5412281508564</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G15" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H15" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I15" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J15" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K15" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L15" t="n">
         <v>183.5548280772646</v>
@@ -5369,40 +5369,40 @@
         <v>338.769091114024</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546593</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O15" t="n">
-        <v>649.210157847634</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017056</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R15" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S15" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T15" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="U15" t="n">
-        <v>750.1023486652786</v>
+        <v>560.6825636487943</v>
       </c>
       <c r="V15" t="n">
-        <v>560.682563648794</v>
+        <v>371.2627786323097</v>
       </c>
       <c r="W15" t="n">
-        <v>371.2627786323095</v>
+        <v>371.2627786323097</v>
       </c>
       <c r="X15" t="n">
-        <v>371.2627786323095</v>
+        <v>338.3894859156838</v>
       </c>
       <c r="Y15" t="n">
-        <v>371.2627786323095</v>
+        <v>338.3894859156838</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="C16" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="D16" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="E16" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="F16" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="G16" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="H16" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I16" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J16" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K16" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L16" t="n">
-        <v>27.03967056230162</v>
+        <v>27.03967056230163</v>
       </c>
       <c r="M16" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170695</v>
       </c>
       <c r="N16" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396302</v>
       </c>
       <c r="O16" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="P16" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="R16" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="S16" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="T16" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="U16" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="V16" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="W16" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="X16" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828946</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>343.6121342154427</v>
+        <v>393.8416170062743</v>
       </c>
       <c r="C17" t="n">
-        <v>343.6121342154427</v>
+        <v>393.8416170062743</v>
       </c>
       <c r="D17" t="n">
-        <v>343.6121342154427</v>
+        <v>393.8416170062743</v>
       </c>
       <c r="E17" t="n">
-        <v>343.6121342154427</v>
+        <v>204.42183198979</v>
       </c>
       <c r="F17" t="n">
-        <v>343.6121342154427</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="G17" t="n">
-        <v>343.6121342154427</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H17" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I17" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J17" t="n">
-        <v>92.46418127429695</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K17" t="n">
-        <v>236.1997673425844</v>
+        <v>80.8121315905891</v>
       </c>
       <c r="L17" t="n">
-        <v>451.4182336881763</v>
+        <v>191.8743094079178</v>
       </c>
       <c r="M17" t="n">
-        <v>722.559683100691</v>
+        <v>347.1218190644746</v>
       </c>
       <c r="N17" t="n">
-        <v>1002.702293013192</v>
+        <v>509.4952041123819</v>
       </c>
       <c r="O17" t="n">
-        <v>1253.897754396959</v>
+        <v>649.484525998557</v>
       </c>
       <c r="P17" t="n">
-        <v>1433.786268216656</v>
+        <v>734.4611726020252</v>
       </c>
       <c r="Q17" t="n">
-        <v>1520.7023038576</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="R17" t="n">
-        <v>1520.7023038576</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="S17" t="n">
-        <v>1375.668304293658</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="T17" t="n">
-        <v>1163.016330376135</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="U17" t="n">
-        <v>1163.016330376135</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="V17" t="n">
-        <v>831.9534430325645</v>
+        <v>583.2614020227587</v>
       </c>
       <c r="W17" t="n">
-        <v>479.1847877624503</v>
+        <v>583.2614020227587</v>
       </c>
       <c r="X17" t="n">
-        <v>479.1847877624503</v>
+        <v>393.8416170062743</v>
       </c>
       <c r="Y17" t="n">
-        <v>479.1847877624503</v>
+        <v>393.8416170062743</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>390.2127882822401</v>
+        <v>371.2627786323093</v>
       </c>
       <c r="C18" t="n">
-        <v>325.8830137115183</v>
+        <v>323.1739116400123</v>
       </c>
       <c r="D18" t="n">
-        <v>176.948604050267</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E18" t="n">
-        <v>176.948604050267</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="F18" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="G18" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H18" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I18" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J18" t="n">
-        <v>48.55283455759705</v>
+        <v>15.00204697330525</v>
       </c>
       <c r="K18" t="n">
-        <v>157.7097378993242</v>
+        <v>67.13418877024165</v>
       </c>
       <c r="L18" t="n">
-        <v>350.8072063959839</v>
+        <v>183.5548280772643</v>
       </c>
       <c r="M18" t="n">
-        <v>595.4997124846639</v>
+        <v>338.7690911140236</v>
       </c>
       <c r="N18" t="n">
-        <v>861.0771460199825</v>
+        <v>512.5000587546591</v>
       </c>
       <c r="O18" t="n">
-        <v>1081.808817742999</v>
+        <v>649.2101578476336</v>
       </c>
       <c r="P18" t="n">
-        <v>1239.632378105371</v>
+        <v>739.5989987017048</v>
       </c>
       <c r="Q18" t="n">
-        <v>1295.214052212671</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="R18" t="n">
-        <v>1295.214052212671</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="S18" t="n">
-        <v>1295.214052212671</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="T18" t="n">
-        <v>1295.214052212671</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="U18" t="n">
-        <v>1295.214052212671</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="V18" t="n">
-        <v>1060.061943980928</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="W18" t="n">
-        <v>805.8245872527268</v>
+        <v>560.6825636487937</v>
       </c>
       <c r="X18" t="n">
-        <v>597.973087047194</v>
+        <v>560.6825636487937</v>
       </c>
       <c r="Y18" t="n">
-        <v>390.2127882822401</v>
+        <v>371.2627786323093</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.41404607715199</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="C19" t="n">
-        <v>30.41404607715199</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="D19" t="n">
-        <v>30.41404607715199</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="E19" t="n">
-        <v>30.41404607715199</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="F19" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="G19" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H19" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I19" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J19" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="K19" t="n">
-        <v>50.84789001160333</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="L19" t="n">
-        <v>106.9019728236738</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M19" t="n">
-        <v>169.2614268008297</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N19" t="n">
-        <v>237.9956382485898</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O19" t="n">
-        <v>281.1697185574767</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P19" t="n">
-        <v>299.0506316800987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q19" t="n">
-        <v>299.0506316800987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R19" t="n">
-        <v>299.0506316800987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S19" t="n">
-        <v>299.0506316800987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T19" t="n">
-        <v>299.0506316800987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U19" t="n">
-        <v>299.0506316800987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="V19" t="n">
-        <v>299.0506316800987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="W19" t="n">
-        <v>258.4035969751693</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="X19" t="n">
-        <v>30.41404607715199</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.41404607715199</v>
+        <v>67.74542702828944</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1136.686570560226</v>
+        <v>371.2627786323097</v>
       </c>
       <c r="C20" t="n">
-        <v>767.7240536198142</v>
+        <v>371.2627786323097</v>
       </c>
       <c r="D20" t="n">
-        <v>767.7240536198142</v>
+        <v>181.8429936158251</v>
       </c>
       <c r="E20" t="n">
-        <v>383.7083203224405</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F20" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G20" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H20" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I20" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J20" t="n">
-        <v>92.46418127429695</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K20" t="n">
-        <v>236.1997673425844</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L20" t="n">
-        <v>451.4182336881763</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M20" t="n">
-        <v>722.559683100691</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N20" t="n">
-        <v>1002.702293013191</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O20" t="n">
-        <v>1253.897754396959</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P20" t="n">
-        <v>1433.786268216656</v>
+        <v>734.461172602026</v>
       </c>
       <c r="Q20" t="n">
-        <v>1520.7023038576</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R20" t="n">
-        <v>1520.7023038576</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S20" t="n">
-        <v>1520.7023038576</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T20" t="n">
-        <v>1520.7023038576</v>
+        <v>560.6825636487943</v>
       </c>
       <c r="U20" t="n">
-        <v>1520.7023038576</v>
+        <v>560.6825636487943</v>
       </c>
       <c r="V20" t="n">
-        <v>1520.7023038576</v>
+        <v>371.2627786323097</v>
       </c>
       <c r="W20" t="n">
-        <v>1520.7023038576</v>
+        <v>371.2627786323097</v>
       </c>
       <c r="X20" t="n">
-        <v>1520.7023038576</v>
+        <v>371.2627786323097</v>
       </c>
       <c r="Y20" t="n">
-        <v>1136.686570560226</v>
+        <v>371.2627786323097</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>336.1860590557225</v>
+        <v>323.1739116400123</v>
       </c>
       <c r="C21" t="n">
-        <v>336.1860590557225</v>
+        <v>323.1739116400123</v>
       </c>
       <c r="D21" t="n">
-        <v>336.1860590557225</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E21" t="n">
-        <v>176.948604050267</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F21" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G21" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H21" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I21" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J21" t="n">
-        <v>48.55283455759705</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K21" t="n">
-        <v>157.7097378993242</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L21" t="n">
-        <v>350.8072063959839</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M21" t="n">
-        <v>595.4997124846639</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N21" t="n">
-        <v>861.0771460199825</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O21" t="n">
-        <v>1081.808817742999</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P21" t="n">
-        <v>1239.632378105371</v>
+        <v>739.5989987017056</v>
       </c>
       <c r="Q21" t="n">
-        <v>1295.214052212671</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R21" t="n">
-        <v>1244.420503310502</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S21" t="n">
-        <v>1244.420503310502</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T21" t="n">
-        <v>1048.489384122885</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="U21" t="n">
-        <v>1048.489384122885</v>
+        <v>702.0134816729815</v>
       </c>
       <c r="V21" t="n">
-        <v>1048.489384122885</v>
+        <v>702.0134816729815</v>
       </c>
       <c r="W21" t="n">
-        <v>794.2520273946839</v>
+        <v>702.0134816729815</v>
       </c>
       <c r="X21" t="n">
-        <v>586.400527189151</v>
+        <v>512.5936966564968</v>
       </c>
       <c r="Y21" t="n">
-        <v>378.6402284241971</v>
+        <v>323.1739116400123</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>299.0506316800987</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C22" t="n">
-        <v>180.5306854894877</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D22" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E22" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F22" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G22" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H22" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I22" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J22" t="n">
-        <v>30.41404607715199</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K22" t="n">
-        <v>50.84789001160333</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L22" t="n">
-        <v>106.9019728236738</v>
+        <v>27.03967056230163</v>
       </c>
       <c r="M22" t="n">
-        <v>169.2614268008297</v>
+        <v>42.98993985170695</v>
       </c>
       <c r="N22" t="n">
-        <v>237.9956382485898</v>
+        <v>66.41847329396302</v>
       </c>
       <c r="O22" t="n">
-        <v>281.1697185574767</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="P22" t="n">
-        <v>299.0506316800987</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="Q22" t="n">
-        <v>299.0506316800987</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="R22" t="n">
-        <v>299.0506316800987</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="S22" t="n">
-        <v>299.0506316800987</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="T22" t="n">
-        <v>299.0506316800987</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="U22" t="n">
-        <v>299.0506316800987</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="V22" t="n">
-        <v>299.0506316800987</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="W22" t="n">
-        <v>299.0506316800987</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="X22" t="n">
-        <v>299.0506316800987</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="Y22" t="n">
-        <v>299.0506316800987</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1256.174399222538</v>
+        <v>1209.671569109795</v>
       </c>
       <c r="C23" t="n">
-        <v>1256.174399222538</v>
+        <v>840.7090521693835</v>
       </c>
       <c r="D23" t="n">
-        <v>1256.174399222538</v>
+        <v>840.7090521693835</v>
       </c>
       <c r="E23" t="n">
-        <v>870.3861466242934</v>
+        <v>840.7090521693835</v>
       </c>
       <c r="F23" t="n">
-        <v>459.4002418346858</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="G23" t="n">
-        <v>43.36919653809306</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H23" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I23" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J23" t="n">
-        <v>152.5078184301904</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K23" t="n">
-        <v>366.8168396232721</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L23" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711871</v>
       </c>
       <c r="M23" t="n">
         <v>1038.14846457873</v>
@@ -6004,7 +6004,7 @@
         <v>1417.286540135167</v>
       </c>
       <c r="O23" t="n">
-        <v>1761.960612545597</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P23" t="n">
         <v>2021.630958172447</v>
@@ -6019,22 +6019,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T23" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U23" t="n">
-        <v>1977.37661854192</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="V23" t="n">
-        <v>1646.313731198349</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="W23" t="n">
-        <v>1646.313731198349</v>
+        <v>1605.517173786454</v>
       </c>
       <c r="X23" t="n">
-        <v>1646.313731198349</v>
+        <v>1596.271409173917</v>
       </c>
       <c r="Y23" t="n">
-        <v>1256.174399222538</v>
+        <v>1596.271409173917</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>498.0756191779149</v>
+        <v>809.4046422439259</v>
       </c>
       <c r="C24" t="n">
-        <v>498.0756191779149</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="D24" t="n">
-        <v>349.1412095166636</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E24" t="n">
-        <v>189.9037545112081</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F24" t="n">
-        <v>43.36919653809306</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G24" t="n">
         <v>43.36919653809306</v>
@@ -6098,22 +6098,22 @@
         <v>1766.227047333487</v>
       </c>
       <c r="T24" t="n">
-        <v>1631.178472975082</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U24" t="n">
-        <v>1403.076883108346</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V24" t="n">
-        <v>1167.924774876603</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W24" t="n">
-        <v>913.6874181484015</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="X24" t="n">
-        <v>705.8359179428687</v>
+        <v>977.6199792639939</v>
       </c>
       <c r="Y24" t="n">
-        <v>498.0756191779149</v>
+        <v>977.6199792639939</v>
       </c>
     </row>
     <row r="25">
@@ -6180,16 +6180,16 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U25" t="n">
-        <v>332.7863665750536</v>
+        <v>264.1617756816232</v>
       </c>
       <c r="V25" t="n">
-        <v>332.7863665750536</v>
+        <v>264.1617756816232</v>
       </c>
       <c r="W25" t="n">
-        <v>43.36919653809306</v>
+        <v>264.1617756816232</v>
       </c>
       <c r="X25" t="n">
-        <v>43.36919653809306</v>
+        <v>264.1617756816232</v>
       </c>
       <c r="Y25" t="n">
         <v>43.36919653809306</v>
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>870.3861466242934</v>
+        <v>846.3095959260143</v>
       </c>
       <c r="C26" t="n">
-        <v>870.3861466242934</v>
+        <v>846.3095959260143</v>
       </c>
       <c r="D26" t="n">
-        <v>870.3861466242934</v>
+        <v>846.3095959260143</v>
       </c>
       <c r="E26" t="n">
-        <v>870.3861466242934</v>
+        <v>846.3095959260143</v>
       </c>
       <c r="F26" t="n">
-        <v>459.4002418346858</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G26" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H26" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I26" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J26" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K26" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L26" t="n">
-        <v>669.5878927711867</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M26" t="n">
         <v>1038.14846457873</v>
@@ -6253,25 +6253,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S26" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T26" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U26" t="n">
-        <v>2168.459826904653</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="V26" t="n">
-        <v>1837.396939561082</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="W26" t="n">
-        <v>1647.125318664227</v>
+        <v>1219.775354187094</v>
       </c>
       <c r="X26" t="n">
-        <v>1647.125318664227</v>
+        <v>846.3095959260143</v>
       </c>
       <c r="Y26" t="n">
-        <v>1256.985986688415</v>
+        <v>846.3095959260143</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>334.7281473424415</v>
+        <v>509.1811766235685</v>
       </c>
       <c r="C27" t="n">
         <v>334.7281473424415</v>
@@ -6329,28 +6329,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R27" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S27" t="n">
-        <v>1766.227047333487</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.516725807463</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U27" t="n">
-        <v>1343.415135940727</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V27" t="n">
-        <v>1108.263027708984</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W27" t="n">
-        <v>854.0256709807825</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X27" t="n">
-        <v>646.1741707752496</v>
+        <v>683.072262121678</v>
       </c>
       <c r="Y27" t="n">
-        <v>438.4138720102957</v>
+        <v>677.3965136436366</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C28" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="D28" t="n">
-        <v>43.36919653809306</v>
+        <v>370.1727076282633</v>
       </c>
       <c r="E28" t="n">
-        <v>43.36919653809306</v>
+        <v>222.2596140458702</v>
       </c>
       <c r="F28" t="n">
-        <v>43.36919653809306</v>
+        <v>222.2596140458702</v>
       </c>
       <c r="G28" t="n">
-        <v>43.36919653809306</v>
+        <v>54.12678464088859</v>
       </c>
       <c r="H28" t="n">
         <v>43.36919653809306</v>
@@ -6417,19 +6417,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U28" t="n">
-        <v>332.7863665750536</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V28" t="n">
-        <v>332.7863665750536</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W28" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X28" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1237.083609737185</v>
+        <v>257.242031868501</v>
       </c>
       <c r="C29" t="n">
-        <v>868.1210927967732</v>
+        <v>257.242031868501</v>
       </c>
       <c r="D29" t="n">
-        <v>509.8553941900227</v>
+        <v>257.242031868501</v>
       </c>
       <c r="E29" t="n">
-        <v>509.8553941900227</v>
+        <v>257.242031868501</v>
       </c>
       <c r="F29" t="n">
-        <v>98.86948940041509</v>
+        <v>257.242031868501</v>
       </c>
       <c r="G29" t="n">
-        <v>98.86948940041509</v>
+        <v>257.242031868501</v>
       </c>
       <c r="H29" t="n">
-        <v>98.86948940041509</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I29" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J29" t="n">
         <v>152.5078184301901</v>
@@ -6469,46 +6469,46 @@
         <v>366.8168396232717</v>
       </c>
       <c r="L29" t="n">
-        <v>669.5878927711863</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M29" t="n">
-        <v>1038.148464578729</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N29" t="n">
         <v>1417.286540135166</v>
       </c>
       <c r="O29" t="n">
-        <v>1761.960612545595</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P29" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q29" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R29" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S29" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T29" t="n">
-        <v>1958.285829056567</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U29" t="n">
-        <v>1958.285829056567</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.222941712997</v>
+        <v>1373.615777375507</v>
       </c>
       <c r="W29" t="n">
-        <v>1627.222941712997</v>
+        <v>1020.847122105393</v>
       </c>
       <c r="X29" t="n">
-        <v>1627.222941712997</v>
+        <v>647.3813638443128</v>
       </c>
       <c r="Y29" t="n">
-        <v>1237.083609737185</v>
+        <v>257.242031868501</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>672.7603567217845</v>
+        <v>99.24512613112324</v>
       </c>
       <c r="C30" t="n">
-        <v>498.3073274406576</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D30" t="n">
-        <v>349.3729177794063</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E30" t="n">
-        <v>190.1354627739508</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F30" t="n">
-        <v>43.60090480083576</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G30" t="n">
-        <v>43.60090480083576</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H30" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I30" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J30" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K30" t="n">
         <v>246.6448318504519</v>
@@ -6566,28 +6566,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R30" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S30" t="n">
-        <v>1766.227047333487</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T30" t="n">
-        <v>1766.227047333487</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U30" t="n">
-        <v>1538.125457466751</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V30" t="n">
-        <v>1302.973349235008</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W30" t="n">
-        <v>1048.735992506806</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X30" t="n">
-        <v>1048.735992506806</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y30" t="n">
-        <v>840.9756937418526</v>
+        <v>267.4604631511913</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C31" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D31" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E31" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F31" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G31" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H31" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I31" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J31" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K31" t="n">
-        <v>92.7168589798152</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L31" t="n">
         <v>185.7706748018941</v>
@@ -6648,25 +6648,25 @@
         <v>520.2893470405991</v>
       </c>
       <c r="S31" t="n">
-        <v>332.7863665750536</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T31" t="n">
-        <v>332.7863665750536</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U31" t="n">
-        <v>332.7863665750536</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="V31" t="n">
-        <v>332.7863665750536</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="W31" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X31" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y31" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1077.998224970289</v>
+        <v>1154.78706424196</v>
       </c>
       <c r="C32" t="n">
-        <v>709.035708029877</v>
+        <v>1154.78706424196</v>
       </c>
       <c r="D32" t="n">
-        <v>350.7700094231265</v>
+        <v>1154.78706424196</v>
       </c>
       <c r="E32" t="n">
-        <v>350.7700094231265</v>
+        <v>768.9988116437162</v>
       </c>
       <c r="F32" t="n">
-        <v>350.7700094231265</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="G32" t="n">
-        <v>350.7700094231265</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H32" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I32" t="n">
         <v>43.36919653809306</v>
@@ -6703,10 +6703,10 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K32" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L32" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711867</v>
       </c>
       <c r="M32" t="n">
         <v>1038.14846457873</v>
@@ -6733,19 +6733,19 @@
         <v>2168.459826904653</v>
       </c>
       <c r="U32" t="n">
-        <v>2168.459826904653</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V32" t="n">
-        <v>2168.459826904653</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="W32" t="n">
-        <v>2168.459826904653</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="X32" t="n">
-        <v>1794.994068643573</v>
+        <v>1541.386904306082</v>
       </c>
       <c r="Y32" t="n">
-        <v>1464.59806503441</v>
+        <v>1541.386904306082</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>767.9840153902086</v>
+        <v>650.1671872384704</v>
       </c>
       <c r="C33" t="n">
-        <v>593.5309861090816</v>
+        <v>475.7141579573434</v>
       </c>
       <c r="D33" t="n">
-        <v>444.5965764478304</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="E33" t="n">
-        <v>285.3591214423749</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F33" t="n">
-        <v>138.8245634692599</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G33" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H33" t="n">
         <v>43.36919653809306</v>
@@ -6806,25 +6806,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S33" t="n">
-        <v>1627.262386835205</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T33" t="n">
-        <v>1432.552065309181</v>
+        <v>1575.509742270683</v>
       </c>
       <c r="U33" t="n">
-        <v>1204.450475442445</v>
+        <v>1347.408152403947</v>
       </c>
       <c r="V33" t="n">
-        <v>1204.450475442445</v>
+        <v>1112.256044172205</v>
       </c>
       <c r="W33" t="n">
-        <v>1204.450475442445</v>
+        <v>858.0186874440033</v>
       </c>
       <c r="X33" t="n">
-        <v>996.5989752369119</v>
+        <v>650.1671872384704</v>
       </c>
       <c r="Y33" t="n">
-        <v>788.838676471958</v>
+        <v>650.1671872384704</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.36919653809306</v>
+        <v>340.3757834483391</v>
       </c>
       <c r="C34" t="n">
-        <v>43.36919653809306</v>
+        <v>340.3757834483391</v>
       </c>
       <c r="D34" t="n">
-        <v>43.36919653809306</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="E34" t="n">
-        <v>43.36919653809306</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F34" t="n">
         <v>43.36919653809306</v>
@@ -6894,16 +6894,16 @@
         <v>520.2893470405991</v>
       </c>
       <c r="V34" t="n">
-        <v>332.7863665750536</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W34" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X34" t="n">
-        <v>43.36919653809306</v>
+        <v>340.3757834483391</v>
       </c>
       <c r="Y34" t="n">
-        <v>43.36919653809306</v>
+        <v>340.3757834483391</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>949.3392845809428</v>
+        <v>1646.324707429756</v>
       </c>
       <c r="C35" t="n">
-        <v>949.3392845809428</v>
+        <v>1277.362190489345</v>
       </c>
       <c r="D35" t="n">
-        <v>949.3392845809428</v>
+        <v>919.0964918825944</v>
       </c>
       <c r="E35" t="n">
-        <v>949.3392845809428</v>
+        <v>533.3082392843501</v>
       </c>
       <c r="F35" t="n">
-        <v>538.3533797913353</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="G35" t="n">
         <v>122.3223344947425</v>
@@ -6934,55 +6934,55 @@
         <v>122.3223344947425</v>
       </c>
       <c r="I35" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J35" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K35" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L35" t="n">
-        <v>669.5878927711863</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M35" t="n">
-        <v>1038.148464578729</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N35" t="n">
         <v>1417.286540135166</v>
       </c>
       <c r="O35" t="n">
-        <v>1761.960612545595</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P35" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q35" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R35" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S35" t="n">
-        <v>2036.325171642783</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T35" t="n">
-        <v>2036.325171642783</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U35" t="n">
-        <v>2036.325171642783</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="V35" t="n">
-        <v>2036.325171642783</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="W35" t="n">
-        <v>1726.078456620876</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="X35" t="n">
-        <v>1726.078456620876</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="Y35" t="n">
-        <v>1335.939124645065</v>
+        <v>1646.324707429756</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>525.9940904859268</v>
+        <v>730.4069798939659</v>
       </c>
       <c r="C36" t="n">
-        <v>351.5410612047998</v>
+        <v>730.4069798939659</v>
       </c>
       <c r="D36" t="n">
-        <v>202.6066515435485</v>
+        <v>581.4725702327146</v>
       </c>
       <c r="E36" t="n">
-        <v>43.36919653809304</v>
+        <v>422.235115227259</v>
       </c>
       <c r="F36" t="n">
-        <v>43.36919653809304</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G36" t="n">
-        <v>43.36919653809304</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H36" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I36" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J36" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K36" t="n">
         <v>246.6448318504519</v>
@@ -7040,28 +7040,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R36" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S36" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="T36" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="U36" t="n">
-        <v>1599.210691436426</v>
+        <v>1506.136709105928</v>
       </c>
       <c r="V36" t="n">
-        <v>1364.058583204683</v>
+        <v>1360.711173847768</v>
       </c>
       <c r="W36" t="n">
-        <v>1109.821226476482</v>
+        <v>1106.473817119567</v>
       </c>
       <c r="X36" t="n">
-        <v>901.9697262709487</v>
+        <v>898.6223169140339</v>
       </c>
       <c r="Y36" t="n">
-        <v>694.2094275059949</v>
+        <v>898.6223169140339</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K37" t="n">
-        <v>92.7168589798152</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L37" t="n">
         <v>185.7706748018941</v>
@@ -7128,19 +7128,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U37" t="n">
-        <v>520.2893470405991</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="V37" t="n">
-        <v>265.6048588347122</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="W37" t="n">
-        <v>43.36919653809304</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="X37" t="n">
-        <v>43.36919653809304</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="Y37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1778.320494928841</v>
+        <v>945.1966859740116</v>
       </c>
       <c r="C38" t="n">
-        <v>1409.357977988429</v>
+        <v>576.2341690336</v>
       </c>
       <c r="D38" t="n">
-        <v>1051.092279381679</v>
+        <v>576.2341690336</v>
       </c>
       <c r="E38" t="n">
-        <v>665.3040267834347</v>
+        <v>576.2341690336</v>
       </c>
       <c r="F38" t="n">
-        <v>254.3181219938271</v>
+        <v>165.2482642439924</v>
       </c>
       <c r="G38" t="n">
-        <v>43.36919653809306</v>
+        <v>165.2482642439924</v>
       </c>
       <c r="H38" t="n">
         <v>43.36919653809306</v>
@@ -7174,13 +7174,13 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J38" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K38" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L38" t="n">
-        <v>669.5878927711867</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M38" t="n">
         <v>1038.14846457873</v>
@@ -7201,25 +7201,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S38" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T38" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U38" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V38" t="n">
-        <v>2168.459826904653</v>
+        <v>1705.262284299213</v>
       </c>
       <c r="W38" t="n">
-        <v>2168.459826904653</v>
+        <v>1705.262284299213</v>
       </c>
       <c r="X38" t="n">
-        <v>2168.459826904653</v>
+        <v>1331.796526038133</v>
       </c>
       <c r="Y38" t="n">
-        <v>1778.320494928841</v>
+        <v>1331.796526038133</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>364.3567837923351</v>
+        <v>329.1795999842284</v>
       </c>
       <c r="C39" t="n">
-        <v>189.9037545112081</v>
+        <v>329.1795999842284</v>
       </c>
       <c r="D39" t="n">
-        <v>189.9037545112081</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="E39" t="n">
-        <v>189.9037545112081</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F39" t="n">
-        <v>43.36919653809306</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G39" t="n">
         <v>43.36919653809306</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>43.36919653809306</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="C40" t="n">
-        <v>43.36919653809306</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="D40" t="n">
-        <v>43.36919653809306</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="E40" t="n">
-        <v>43.36919653809306</v>
+        <v>148.7723961508295</v>
       </c>
       <c r="F40" t="n">
-        <v>43.36919653809306</v>
+        <v>148.7723961508295</v>
       </c>
       <c r="G40" t="n">
         <v>43.36919653809306</v>
@@ -7362,22 +7362,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T40" t="n">
-        <v>520.2893470405991</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="U40" t="n">
-        <v>520.2893470405991</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="V40" t="n">
-        <v>265.6048588347122</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="W40" t="n">
-        <v>43.36919653809306</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="X40" t="n">
-        <v>43.36919653809306</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="Y40" t="n">
-        <v>43.36919653809306</v>
+        <v>296.6854897332227</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1277.362190489345</v>
+        <v>1563.575212107571</v>
       </c>
       <c r="C41" t="n">
-        <v>1277.362190489345</v>
+        <v>1563.575212107571</v>
       </c>
       <c r="D41" t="n">
-        <v>919.0964918825944</v>
+        <v>1563.575212107571</v>
       </c>
       <c r="E41" t="n">
-        <v>533.3082392843501</v>
+        <v>1177.786959509327</v>
       </c>
       <c r="F41" t="n">
-        <v>122.3223344947425</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="G41" t="n">
-        <v>122.3223344947425</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H41" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I41" t="n">
         <v>43.36919653809306</v>
@@ -7423,7 +7423,7 @@
         <v>1038.14846457873</v>
       </c>
       <c r="N41" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O41" t="n">
         <v>1761.960612545596</v>
@@ -7450,13 +7450,13 @@
         <v>2036.325171642784</v>
       </c>
       <c r="W41" t="n">
-        <v>2036.325171642784</v>
+        <v>1683.55651637267</v>
       </c>
       <c r="X41" t="n">
-        <v>1667.501522465157</v>
+        <v>1563.575212107571</v>
       </c>
       <c r="Y41" t="n">
-        <v>1277.362190489345</v>
+        <v>1563.575212107571</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>217.8222258192201</v>
+        <v>767.9840153902086</v>
       </c>
       <c r="C42" t="n">
-        <v>43.36919653809306</v>
+        <v>593.5309861090816</v>
       </c>
       <c r="D42" t="n">
-        <v>43.36919653809306</v>
+        <v>444.5965764478304</v>
       </c>
       <c r="E42" t="n">
-        <v>43.36919653809306</v>
+        <v>285.3591214423749</v>
       </c>
       <c r="F42" t="n">
-        <v>43.36919653809306</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="G42" t="n">
-        <v>43.36919653809306</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H42" t="n">
         <v>43.36919653809306</v>
@@ -7517,25 +7517,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S42" t="n">
-        <v>1627.262386835205</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T42" t="n">
-        <v>1432.552065309181</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U42" t="n">
-        <v>1204.450475442445</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="V42" t="n">
-        <v>969.2983672107021</v>
+        <v>1531.074939101744</v>
       </c>
       <c r="W42" t="n">
-        <v>715.0610104825005</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X42" t="n">
-        <v>593.797861604242</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y42" t="n">
-        <v>386.0375628392881</v>
+        <v>861.2257834030556</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.36919653809306</v>
+        <v>292.2997961425817</v>
       </c>
       <c r="C43" t="n">
-        <v>43.36919653809306</v>
+        <v>123.3636132146748</v>
       </c>
       <c r="D43" t="n">
-        <v>43.36919653809306</v>
+        <v>123.3636132146748</v>
       </c>
       <c r="E43" t="n">
-        <v>43.36919653809306</v>
+        <v>123.3636132146748</v>
       </c>
       <c r="F43" t="n">
         <v>43.36919653809306</v>
@@ -7572,7 +7572,7 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K43" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L43" t="n">
         <v>185.7706748018941</v>
@@ -7605,16 +7605,16 @@
         <v>520.2893470405991</v>
       </c>
       <c r="V43" t="n">
-        <v>265.6048588347122</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W43" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X43" t="n">
-        <v>43.36919653809306</v>
+        <v>292.2997961425817</v>
       </c>
       <c r="Y43" t="n">
-        <v>43.36919653809306</v>
+        <v>292.2997961425817</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1391.720654864719</v>
+        <v>1228.651845231044</v>
       </c>
       <c r="C44" t="n">
-        <v>1391.720654864719</v>
+        <v>1228.651845231044</v>
       </c>
       <c r="D44" t="n">
-        <v>1256.174399222538</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="E44" t="n">
         <v>870.3861466242934</v>
@@ -7639,28 +7639,28 @@
         <v>459.4002418346858</v>
       </c>
       <c r="G44" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H44" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I44" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J44" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K44" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L44" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711867</v>
       </c>
       <c r="M44" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N44" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O44" t="n">
         <v>1761.960612545596</v>
@@ -7669,31 +7669,31 @@
         <v>2021.630958172447</v>
       </c>
       <c r="Q44" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R44" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S44" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T44" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U44" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V44" t="n">
-        <v>2168.459826904652</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W44" t="n">
-        <v>2168.459826904652</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="X44" t="n">
-        <v>2168.459826904652</v>
+        <v>1463.931181300002</v>
       </c>
       <c r="Y44" t="n">
-        <v>1778.320494928841</v>
+        <v>1228.651845231044</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>525.9940904859268</v>
+        <v>275.700557254144</v>
       </c>
       <c r="C45" t="n">
-        <v>351.5410612047998</v>
+        <v>275.700557254144</v>
       </c>
       <c r="D45" t="n">
-        <v>202.6066515435485</v>
+        <v>275.700557254144</v>
       </c>
       <c r="E45" t="n">
-        <v>43.36919653809305</v>
+        <v>275.700557254144</v>
       </c>
       <c r="F45" t="n">
-        <v>43.36919653809305</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G45" t="n">
-        <v>43.36919653809305</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H45" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I45" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J45" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K45" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L45" t="n">
-        <v>504.1959674104394</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M45" t="n">
-        <v>824.1028628789486</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N45" t="n">
         <v>1166.88538687358</v>
@@ -7745,34 +7745,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P45" t="n">
-        <v>1672.753048689046</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q45" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R45" t="n">
-        <v>1766.227047333486</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S45" t="n">
-        <v>1766.227047333486</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T45" t="n">
-        <v>1766.227047333486</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U45" t="n">
-        <v>1538.12545746675</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V45" t="n">
-        <v>1302.973349235008</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W45" t="n">
-        <v>1048.735992506806</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X45" t="n">
-        <v>840.8844923012732</v>
+        <v>483.4608560190979</v>
       </c>
       <c r="Y45" t="n">
-        <v>633.1241935363194</v>
+        <v>275.700557254144</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.36919653809305</v>
+        <v>100.3172822812953</v>
       </c>
       <c r="C46" t="n">
-        <v>43.36919653809305</v>
+        <v>100.3172822812953</v>
       </c>
       <c r="D46" t="n">
-        <v>43.36919653809305</v>
+        <v>100.3172822812953</v>
       </c>
       <c r="E46" t="n">
-        <v>43.36919653809305</v>
+        <v>100.3172822812953</v>
       </c>
       <c r="F46" t="n">
-        <v>43.36919653809305</v>
+        <v>100.3172822812953</v>
       </c>
       <c r="G46" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H46" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I46" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J46" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K46" t="n">
-        <v>92.71685897981519</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L46" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M46" t="n">
-        <v>287.1411594927331</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N46" t="n">
-        <v>393.9588065377459</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O46" t="n">
-        <v>472.3091036033657</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P46" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q46" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R46" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S46" t="n">
-        <v>520.289347040599</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="T46" t="n">
-        <v>520.289347040599</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="U46" t="n">
-        <v>231.1630260146225</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="V46" t="n">
-        <v>231.1630260146225</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="W46" t="n">
-        <v>43.36919653809305</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="X46" t="n">
-        <v>43.36919653809305</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="Y46" t="n">
-        <v>43.36919653809305</v>
+        <v>100.3172822812953</v>
       </c>
     </row>
   </sheetData>
@@ -22549,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>363.4246355629722</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22561,22 +22561,22 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.707320657778</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H2" t="n">
-        <v>323.1357392253592</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I2" t="n">
-        <v>148.9685811771479</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J2" t="n">
-        <v>45.63689302957772</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K2" t="n">
-        <v>17.14684397594775</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22585,37 +22585,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P2" t="n">
-        <v>1.810057396252972</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q2" t="n">
-        <v>50.01861771953256</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R2" t="n">
-        <v>115.3674336481769</v>
+        <v>133.1811664518765</v>
       </c>
       <c r="S2" t="n">
-        <v>172.6645079492214</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T2" t="n">
-        <v>166.3169052439262</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2180195592479</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>299.4459616902884</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>336.4429316289289</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>122.9134919611911</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,19 +22640,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.4898938890125</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H3" t="n">
-        <v>103.9912405093721</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I3" t="n">
-        <v>70.13228042782632</v>
+        <v>75.35636030051944</v>
       </c>
       <c r="J3" t="n">
-        <v>46.18894706358476</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22670,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>31.01751192697151</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R3" t="n">
-        <v>92.6799817290989</v>
+        <v>102.1006281848752</v>
       </c>
       <c r="S3" t="n">
-        <v>111.9680509922885</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T3" t="n">
-        <v>146.9290208388017</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U3" t="n">
-        <v>176.0902156279161</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22719,49 +22719,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2753302804353</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H4" t="n">
-        <v>155.8644016137399</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I4" t="n">
-        <v>133.9289553808794</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J4" t="n">
-        <v>76.39903162313584</v>
+        <v>85.39252213584972</v>
       </c>
       <c r="K4" t="n">
-        <v>45.86784710562524</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L4" t="n">
-        <v>28.48717608127421</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M4" t="n">
-        <v>26.74453801706942</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N4" t="n">
-        <v>18.17171782551226</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O4" t="n">
-        <v>37.30279422357805</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P4" t="n">
-        <v>51.173501012562</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q4" t="n">
-        <v>91.57915019604307</v>
+        <v>102.230949233282</v>
       </c>
       <c r="R4" t="n">
-        <v>145.11520646895</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5447863772357</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T4" t="n">
-        <v>224.8878160949084</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2799939522351</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22786,22 +22786,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>315.4778847438829</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>332.1353630451372</v>
+        <v>332.1353630451371</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>405.0277895336762</v>
       </c>
       <c r="G5" t="n">
         <v>413.707320657778</v>
       </c>
       <c r="H5" t="n">
-        <v>321.2874830173239</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I5" t="n">
         <v>148.9685811771479</v>
@@ -22837,7 +22837,7 @@
         <v>172.6645079492214</v>
       </c>
       <c r="T5" t="n">
-        <v>166.3169052439262</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U5" t="n">
         <v>251.2180195592479</v>
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>122.9134919611911</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22913,25 +22913,25 @@
         <v>92.6799817290989</v>
       </c>
       <c r="S6" t="n">
-        <v>106.0324861546552</v>
+        <v>106.0324861546551</v>
       </c>
       <c r="T6" t="n">
-        <v>146.9290208388017</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U6" t="n">
-        <v>182.0257804655494</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>183.0055801223006</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>155.9779781763528</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>161.823253587813</v>
       </c>
     </row>
     <row r="7">
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>300.3110827384206</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23068,28 +23068,28 @@
         <v>23.65357118422324</v>
       </c>
       <c r="R8" t="n">
-        <v>7.366133540830873</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S8" t="n">
-        <v>74.43607637216456</v>
+        <v>85.48173832742553</v>
       </c>
       <c r="T8" t="n">
-        <v>215.0431621354273</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U8" t="n">
         <v>251.1984878605957</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W8" t="n">
-        <v>256.5760194283108</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>293.5729893669514</v>
       </c>
     </row>
     <row r="9">
@@ -23102,19 +23102,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>80.04354969921354</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>76.02579312155972</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>52.40426310428168</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>43.69431484884211</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H9" t="n">
         <v>102.729632124056</v>
@@ -23156,16 +23156,16 @@
         <v>196.197498299121</v>
       </c>
       <c r="U9" t="n">
-        <v>133.2116793033683</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>140.1356378603231</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>170.0756958270784</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>113.1080359143753</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23263,22 +23263,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>189.5105044445882</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>290.0354536060148</v>
       </c>
       <c r="G11" t="n">
-        <v>225.572246063738</v>
+        <v>225.5722460637385</v>
       </c>
       <c r="H11" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399028</v>
       </c>
       <c r="I11" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>213.4438810562068</v>
@@ -23320,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>161.7153815510929</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23348,19 +23348,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>116.0604645830645</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>78.30512210769518</v>
       </c>
       <c r="H12" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I12" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J12" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.43289562846316</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S12" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U12" t="n">
-        <v>38.33818124377086</v>
+        <v>38.3381812437714</v>
       </c>
       <c r="V12" t="n">
-        <v>45.2749999831052</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>64.16939599459954</v>
+        <v>64.16939599460008</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>96.39952676377831</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23439,10 +23439,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J13" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K13" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.68604055159722</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R13" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S13" t="n">
-        <v>154.5643095410616</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T13" t="n">
         <v>223.7196734901001</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>376.3371176774394</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S14" t="n">
-        <v>158.7758131900532</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>25.91829388988714</v>
+        <v>25.91829388988705</v>
       </c>
       <c r="U14" t="n">
-        <v>63.64367339871069</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V14" t="n">
-        <v>140.2266713038153</v>
+        <v>140.2266713038152</v>
       </c>
       <c r="W14" t="n">
-        <v>261.1501505579827</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897339</v>
       </c>
     </row>
     <row r="15">
@@ -23579,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>103.6192295763159</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23588,7 +23588,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H15" t="n">
         <v>100.8417573507397</v>
@@ -23630,16 +23630,16 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8637684100909</v>
+        <v>38.3381812437712</v>
       </c>
       <c r="V15" t="n">
-        <v>45.27499998310563</v>
+        <v>45.27499998310554</v>
       </c>
       <c r="W15" t="n">
-        <v>64.16939599459997</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>173.2284254140179</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23670,7 +23670,7 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H16" t="n">
-        <v>153.4336708318196</v>
+        <v>101.2177245773855</v>
       </c>
       <c r="I16" t="n">
         <v>125.7072197708667</v>
@@ -23703,7 +23703,7 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S16" t="n">
-        <v>154.5643095410622</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T16" t="n">
         <v>223.7196734901001</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>248.516914651943</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059423</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753919</v>
       </c>
       <c r="G17" t="n">
-        <v>412.4311451939966</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I17" t="n">
-        <v>99.76882660971485</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>35.20287667141741</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1159255221454</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>162.5797212940407</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121495</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>109.0220221633012</v>
+        <v>125.1005206659417</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8070798189336</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H18" t="n">
-        <v>97.39669409571536</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I18" t="n">
-        <v>46.62311178695202</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.28561341314773</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S18" t="n">
-        <v>143.1445213099196</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T18" t="n">
-        <v>193.9718079957399</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8403006767461</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>64.16939599460008</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>18.15710861098484</v>
       </c>
     </row>
     <row r="19">
@@ -23901,22 +23901,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>93.2051017684972</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7028819012923</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H19" t="n">
-        <v>150.7748151155418</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I19" t="n">
-        <v>116.7138713971991</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J19" t="n">
-        <v>35.92693121773037</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,31 +23931,31 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q19" t="n">
-        <v>43.64440455708332</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R19" t="n">
-        <v>119.375845712214</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S19" t="n">
-        <v>201.5685723516266</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T19" t="n">
-        <v>222.4419002931159</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2487694951909</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>246.2824339787109</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,25 +23971,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543632</v>
       </c>
       <c r="E20" t="n">
-        <v>1.754794107861869</v>
+        <v>216.7578328961675</v>
       </c>
       <c r="F20" t="n">
-        <v>57.11471423887582</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.4311451939966</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H20" t="n">
-        <v>310.0661072569077</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I20" t="n">
-        <v>99.76882660971485</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>35.20287667141741</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S20" t="n">
-        <v>143.5836595683023</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T20" t="n">
-        <v>210.5254541783477</v>
+        <v>25.91829388988705</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1159255221454</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038152</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.062362691653675</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>124.5035559750775</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8070798189336</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H21" t="n">
-        <v>97.39669409571536</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I21" t="n">
-        <v>46.62311178695202</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S21" t="n">
-        <v>143.1445213099196</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8403006767461</v>
+        <v>178.2557900877165</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>18.24739803715775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>18.15710861098464</v>
       </c>
     </row>
     <row r="22">
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>49.91207436992296</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,19 +24141,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7028819012923</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H22" t="n">
-        <v>150.7748151155418</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I22" t="n">
-        <v>116.7138713971991</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J22" t="n">
-        <v>35.92693121773037</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,22 +24168,22 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q22" t="n">
-        <v>43.64440455708332</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R22" t="n">
-        <v>119.375845712214</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S22" t="n">
-        <v>201.5685723516266</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T22" t="n">
-        <v>222.4419002931159</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2487694951909</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>173.4937091346031</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H23" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T23" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>61.89871641501031</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>360.5777937120574</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>94.50081326185514</v>
@@ -24338,7 +24338,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T24" t="n">
-        <v>59.06512969594286</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>135.368132093093</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24420,19 +24420,19 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U25" t="n">
-        <v>100.6071071548267</v>
+        <v>32.66876217033055</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>101.9993917683793</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I26" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>160.8720640295264</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>63.88431622869166</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>200.0637047840433</v>
       </c>
     </row>
     <row r="28">
@@ -24606,19 +24606,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.5398113612452</v>
+        <v>137.8897991394776</v>
       </c>
       <c r="I28" t="n">
         <v>109.1541654470835</v>
@@ -24657,13 +24657,13 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U28" t="n">
-        <v>100.6071071548267</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H29" t="n">
-        <v>304.326804756183</v>
+        <v>170.7563043561621</v>
       </c>
       <c r="I29" t="n">
-        <v>23.21831664338416</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24761,22 +24761,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>117.3913286912159</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>135.5072338470353</v>
       </c>
       <c r="H30" t="n">
-        <v>94.27142208173984</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I30" t="n">
         <v>36.29946757904885</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>108.0728512656386</v>
       </c>
       <c r="S31" t="n">
-        <v>11.55974009872591</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T31" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>100.6071071548268</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,16 +24919,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>70.99313812041061</v>
       </c>
       <c r="G32" t="n">
         <v>411.8707348436268</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>59.14589508298269</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>145.8870691789354</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25004,16 +25004,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I33" t="n">
         <v>36.29946757904885</v>
@@ -25046,25 +25046,25 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>3.953086298588573</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25080,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4515011109318</v>
@@ -25134,13 +25134,13 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V34" t="n">
-        <v>66.50969266293805</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>47.59522743269983</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H35" t="n">
         <v>304.326804756183</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.0710926941158</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>42.09672084572554</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>208.2097369547606</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25244,13 +25244,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>36.29946757904885</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>137.5750138932992</v>
@@ -25289,10 +25289,10 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U36" t="n">
-        <v>60.47438162997841</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>88.82930724384696</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25368,19 +25368,19 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>66.50969266293802</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>32.66876217033058</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>203.0312986424501</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H38" t="n">
-        <v>304.326804756183</v>
+        <v>183.6665277273427</v>
       </c>
       <c r="I38" t="n">
         <v>78.16360657708299</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>208.0722578696039</v>
@@ -25450,16 +25450,16 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>93.21666631408635</v>
+        <v>58.39125434406067</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>94.50081326185514</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4515011109318</v>
+        <v>62.10233349432269</v>
       </c>
       <c r="H40" t="n">
         <v>148.5398113612452</v>
@@ -25602,16 +25602,16 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T40" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>66.50969266293805</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.595687992618139</v>
+        <v>250.9496094560211</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>74.22383331714877</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>135.5072338470353</v>
       </c>
       <c r="H42" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>36.29946757904885</v>
@@ -25757,13 +25757,13 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>85.72246781400162</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>66.22657551311532</v>
       </c>
       <c r="G43" t="n">
         <v>166.4515011109318</v>
@@ -25845,13 +25845,13 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>66.50969266293805</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>220.4922485349236</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I44" t="n">
-        <v>78.16360657708302</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.8133087092505</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T44" t="n">
         <v>208.0722578696039</v>
@@ -25924,16 +25924,16 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>153.3113959477848</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>60.47438162997871</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>36.29946757904886</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>31.66886087721433</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>8.157693161923163</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4515011109318</v>
+        <v>110.0728962251615</v>
       </c>
       <c r="H46" t="n">
         <v>148.5398113612452</v>
@@ -26046,7 +26046,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J46" t="n">
-        <v>18.15430933923926</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.59469128425556</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R46" t="n">
         <v>108.0728512656386</v>
       </c>
       <c r="S46" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>100.6071071548269</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>320248.5747079584</v>
+        <v>261488.9223132072</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>320248.5747079585</v>
+        <v>320248.5747079582</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>369458.4460828791</v>
+        <v>369458.446082879</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>449927.0402889126</v>
+        <v>449927.0402889121</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>449927.0402889121</v>
+        <v>449927.0402889123</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>584334.5928181648</v>
+        <v>449927.0402889122</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>584334.5928181647</v>
+        <v>449927.0402889122</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>697283.8630439837</v>
+        <v>697283.8630439838</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>697283.8630439838</v>
+        <v>697283.8630439839</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>697283.8630439839</v>
+        <v>697283.8630439838</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>697283.8630439838</v>
+        <v>697283.8630439839</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>697283.8630439836</v>
+        <v>697283.8630439837</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>697283.8630439838</v>
+        <v>697283.8630439839</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>697283.8630439838</v>
+        <v>697283.863043984</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>697283.8630439838</v>
+        <v>697283.863043984</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94888.46658013569</v>
+        <v>77478.19920391326</v>
       </c>
       <c r="C2" t="n">
-        <v>94888.46658013569</v>
+        <v>94888.46658013568</v>
       </c>
       <c r="D2" t="n">
         <v>109469.1692097419</v>
       </c>
       <c r="E2" t="n">
+        <v>133311.7156411591</v>
+      </c>
+      <c r="F2" t="n">
         <v>133311.7156411592</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>133311.7156411591</v>
       </c>
-      <c r="G2" t="n">
-        <v>173136.1756498265</v>
-      </c>
       <c r="H2" t="n">
-        <v>173136.1756498266</v>
+        <v>133311.7156411592</v>
       </c>
       <c r="I2" t="n">
-        <v>206602.6260871059</v>
+        <v>206602.6260871061</v>
       </c>
       <c r="J2" t="n">
         <v>206602.6260871059</v>
       </c>
       <c r="K2" t="n">
-        <v>206602.6260871059</v>
+        <v>206602.626087106</v>
       </c>
       <c r="L2" t="n">
+        <v>206602.6260871061</v>
+      </c>
+      <c r="M2" t="n">
+        <v>206602.6260871061</v>
+      </c>
+      <c r="N2" t="n">
+        <v>206602.6260871061</v>
+      </c>
+      <c r="O2" t="n">
         <v>206602.626087106</v>
-      </c>
-      <c r="M2" t="n">
-        <v>206602.626087106</v>
-      </c>
-      <c r="N2" t="n">
-        <v>206602.626087106</v>
-      </c>
-      <c r="O2" t="n">
-        <v>206602.6260871059</v>
       </c>
       <c r="P2" t="n">
         <v>206602.626087106</v>
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>399106.8526518422</v>
+        <v>314444.4864346</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>80322.73427769342</v>
       </c>
       <c r="D3" t="n">
-        <v>65327.89037938112</v>
+        <v>65327.8903793811</v>
       </c>
       <c r="E3" t="n">
-        <v>101335.4572062676</v>
+        <v>101335.4572062669</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>181739.8658516867</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>147997.8543656405</v>
+        <v>324062.4092105526</v>
       </c>
       <c r="J3" t="n">
-        <v>13028.56481860499</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>12815.64136855703</v>
       </c>
       <c r="L3" t="n">
-        <v>10849.99655702622</v>
+        <v>10849.99655702615</v>
       </c>
       <c r="M3" t="n">
-        <v>23639.65040155415</v>
+        <v>23639.65040155407</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>46361.41245424681</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.96378040239005</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>30.96378040239005</v>
+        <v>30.96378040239008</v>
       </c>
       <c r="D4" t="n">
         <v>67.14558386063672</v>
       </c>
       <c r="E4" t="n">
-        <v>137.8001180723342</v>
+        <v>137.8001180723337</v>
       </c>
       <c r="F4" t="n">
         <v>137.8001180723338</v>
       </c>
       <c r="G4" t="n">
-        <v>270.7602176271823</v>
+        <v>137.8001180723338</v>
       </c>
       <c r="H4" t="n">
-        <v>270.7602176271823</v>
+        <v>137.8001180723338</v>
       </c>
       <c r="I4" t="n">
         <v>384.3219252469136</v>
@@ -26459,7 +26459,7 @@
         <v>384.3219252469136</v>
       </c>
       <c r="P4" t="n">
-        <v>384.3219252469135</v>
+        <v>384.3219252469136</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45306.68319048216</v>
+        <v>40741.33736580378</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
@@ -26478,16 +26478,16 @@
         <v>49237.11966583622</v>
       </c>
       <c r="E5" t="n">
-        <v>23358.20041161359</v>
+        <v>23358.20041161354</v>
       </c>
       <c r="F5" t="n">
+        <v>23358.20041161355</v>
+      </c>
+      <c r="G5" t="n">
         <v>23358.20041161354</v>
       </c>
-      <c r="G5" t="n">
-        <v>38686.60227808918</v>
-      </c>
       <c r="H5" t="n">
-        <v>38686.60227808918</v>
+        <v>23358.20041161355</v>
       </c>
       <c r="I5" t="n">
         <v>51571.48185587223</v>
@@ -26496,19 +26496,19 @@
         <v>51571.48185587223</v>
       </c>
       <c r="K5" t="n">
-        <v>51571.48185587222</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="L5" t="n">
         <v>51571.48185587223</v>
       </c>
       <c r="M5" t="n">
-        <v>51571.48185587222</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="N5" t="n">
         <v>51571.48185587223</v>
       </c>
       <c r="O5" t="n">
-        <v>51571.48185587223</v>
+        <v>51571.48185587225</v>
       </c>
       <c r="P5" t="n">
         <v>51571.48185587223</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-364151.5481279396</v>
+        <v>-279275.9902761267</v>
       </c>
       <c r="C6" t="n">
-        <v>34955.30452390253</v>
+        <v>-32231.46617697716</v>
       </c>
       <c r="D6" t="n">
-        <v>-18847.20759033427</v>
+        <v>-6531.408536435863</v>
       </c>
       <c r="E6" t="n">
-        <v>-3713.804113828895</v>
+        <v>7260.851703302862</v>
       </c>
       <c r="F6" t="n">
-        <v>97621.6530924392</v>
+        <v>108596.3089095698</v>
       </c>
       <c r="G6" t="n">
-        <v>-57266.08596606944</v>
+        <v>108596.3089095698</v>
       </c>
       <c r="H6" t="n">
-        <v>124473.7798856173</v>
+        <v>108596.3089095698</v>
       </c>
       <c r="I6" t="n">
-        <v>-964.4121758166366</v>
+        <v>-170176.9249161819</v>
       </c>
       <c r="J6" t="n">
-        <v>134004.8773712189</v>
+        <v>153885.4842943705</v>
       </c>
       <c r="K6" t="n">
-        <v>147033.4421898239</v>
+        <v>141069.8429258136</v>
       </c>
       <c r="L6" t="n">
-        <v>136183.4456327977</v>
+        <v>143035.4877373445</v>
       </c>
       <c r="M6" t="n">
-        <v>123393.7917882698</v>
+        <v>130245.8338928166</v>
       </c>
       <c r="N6" t="n">
-        <v>147033.4421898239</v>
+        <v>153885.4842943706</v>
       </c>
       <c r="O6" t="n">
-        <v>100672.0297355771</v>
+        <v>153885.4842943705</v>
       </c>
       <c r="P6" t="n">
-        <v>147033.4421898239</v>
+        <v>153885.4842943706</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>396.859943267568</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
@@ -26746,16 +26746,16 @@
         <v>457.5913187641655</v>
       </c>
       <c r="E3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="F3" t="n">
         <v>548.4699409129042</v>
       </c>
       <c r="G3" t="n">
-        <v>714.3085898831955</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="H3" t="n">
-        <v>714.3085898831955</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="I3" t="n">
         <v>853.7106645376841</v>
@@ -26779,7 +26779,7 @@
         <v>853.7106645376841</v>
       </c>
       <c r="P3" t="n">
-        <v>853.710664537684</v>
+        <v>853.7106645376841</v>
       </c>
     </row>
     <row r="4">
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>49.79500702712463</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="D4" t="n">
         <v>92.6649492891022</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="F4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="G4" t="n">
-        <v>380.1755759643999</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="H4" t="n">
-        <v>380.1755759643999</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="I4" t="n">
         <v>542.1149567261632</v>
@@ -26816,22 +26816,22 @@
         <v>542.1149567261632</v>
       </c>
       <c r="K4" t="n">
-        <v>542.114956726163</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="L4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="M4" t="n">
-        <v>542.114956726163</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="N4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="O4" t="n">
+        <v>542.1149567261633</v>
+      </c>
+      <c r="P4" t="n">
         <v>542.1149567261632</v>
-      </c>
-      <c r="P4" t="n">
-        <v>542.1149567261631</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>396.859943267568</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>70.54171547840377</v>
       </c>
       <c r="D3" t="n">
         <v>60.73137549659748</v>
       </c>
       <c r="E3" t="n">
-        <v>90.87862214873928</v>
+        <v>90.87862214873871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>165.8386489702913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>139.4020746544886</v>
+        <v>305.2407236247799</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="D4" t="n">
-        <v>42.86994226197757</v>
+        <v>42.86994226197751</v>
       </c>
       <c r="E4" t="n">
-        <v>94.86063787721787</v>
+        <v>94.86063787721733</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.640951073053822e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>192.6499887980803</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>161.9393807617633</v>
+        <v>354.5893695598435</v>
       </c>
       <c r="J4" t="n">
-        <v>49.7950070271246</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="L4" t="n">
-        <v>42.8699422619778</v>
+        <v>42.86994226197751</v>
       </c>
       <c r="M4" t="n">
-        <v>94.86063787721764</v>
+        <v>94.86063787721733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>192.6499887980802</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="L4" t="n">
-        <v>42.86994226197757</v>
+        <v>42.86994226197751</v>
       </c>
       <c r="M4" t="n">
-        <v>94.86063787721787</v>
+        <v>94.86063787721733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>192.6499887980803</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.595416857357056</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H2" t="n">
-        <v>16.33906289040796</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I2" t="n">
-        <v>61.50730839325797</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J2" t="n">
-        <v>135.4090114971086</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K2" t="n">
-        <v>202.9430070690328</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L2" t="n">
-        <v>251.7687457173739</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M2" t="n">
-        <v>280.1412402543974</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>279.2080706237156</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>268.8097920250189</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P2" t="n">
-        <v>229.4229383590166</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q2" t="n">
-        <v>172.2870721549169</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R2" t="n">
-        <v>100.2181041659553</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S2" t="n">
-        <v>36.35556163702395</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T2" t="n">
-        <v>6.983937293080517</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1276333485885645</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8536232741981653</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H3" t="n">
-        <v>8.244203727124386</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I3" t="n">
-        <v>29.39009957217367</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J3" t="n">
-        <v>80.64867960308193</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3448253911411</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>191.9290409491429</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>181.1367191104579</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>192.3912514715691</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>134.9670493543445</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>108.96426215905</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R3" t="n">
-        <v>52.99952223486505</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S3" t="n">
-        <v>15.85567792205802</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T3" t="n">
-        <v>3.440700828895235</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05615942593408984</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7156490780234833</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H4" t="n">
-        <v>6.362770893699701</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I4" t="n">
-        <v>21.52151954637894</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J4" t="n">
-        <v>50.59638981626026</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K4" t="n">
-        <v>83.14541106491014</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L4" t="n">
-        <v>106.3975001999641</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M4" t="n">
-        <v>112.1812459305356</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N4" t="n">
-        <v>109.5138266397209</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O4" t="n">
-        <v>101.1537442282647</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P4" t="n">
-        <v>86.55450303658561</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q4" t="n">
-        <v>59.92585143340277</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R4" t="n">
-        <v>32.17818490821952</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S4" t="n">
-        <v>12.47181165973652</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T4" t="n">
-        <v>3.057773333373064</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0390354042558264</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31375,10 +31375,10 @@
         <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
-        <v>191.9290409491429</v>
+        <v>191.929040949143</v>
       </c>
       <c r="N6" t="n">
-        <v>153.0991627102423</v>
+        <v>153.0991627102424</v>
       </c>
       <c r="O6" t="n">
         <v>192.3912514715691</v>
@@ -31609,7 +31609,7 @@
         <v>158.9352790843423</v>
       </c>
       <c r="L9" t="n">
-        <v>153.489060191812</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M9" t="n">
         <v>234.7989832111205</v>
@@ -31618,7 +31618,7 @@
         <v>224.0066613724355</v>
       </c>
       <c r="O9" t="n">
-        <v>234.1788327264121</v>
+        <v>173.959796357658</v>
       </c>
       <c r="P9" t="n">
         <v>187.9491588335306</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H11" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I11" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J11" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K11" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L11" t="n">
-        <v>347.9504329672894</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M11" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N11" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O11" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P11" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R11" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S11" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T11" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H12" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I12" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J12" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K12" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L12" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M12" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N12" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O12" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P12" t="n">
-        <v>225.2762668628873</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.5912184936715</v>
+        <v>150.591218493671</v>
       </c>
       <c r="R12" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S12" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T12" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H13" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I13" t="n">
-        <v>29.74325515639163</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J13" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K13" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L13" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M13" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N13" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O13" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R13" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S13" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T13" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.871592321138472</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H17" t="n">
-        <v>29.40869485885939</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I17" t="n">
-        <v>110.7070629606911</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J17" t="n">
-        <v>243.7228087662266</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K17" t="n">
-        <v>365.2773117200182</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L17" t="n">
-        <v>453.1588052180599</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M17" t="n">
-        <v>504.2264851591061</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N17" t="n">
-        <v>512.3853968415409</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O17" t="n">
-        <v>483.8310006982201</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P17" t="n">
-        <v>412.9385652701141</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q17" t="n">
-        <v>310.0996652693424</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R17" t="n">
-        <v>180.3826611427147</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S17" t="n">
-        <v>65.436410017943</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T17" t="n">
-        <v>12.57039538578367</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2297273856910777</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.536437344277062</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H18" t="n">
-        <v>14.8387501407811</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I18" t="n">
-        <v>52.89926821304797</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J18" t="n">
-        <v>145.1596352327728</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K18" t="n">
-        <v>248.100937299336</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L18" t="n">
-        <v>333.6023277562981</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M18" t="n">
-        <v>389.2981814863415</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N18" t="n">
-        <v>399.6017459573926</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O18" t="n">
-        <v>365.5575290131482</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P18" t="n">
-        <v>293.3921451540997</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q18" t="n">
-        <v>196.1248792449106</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R18" t="n">
-        <v>95.39389055081622</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S18" t="n">
-        <v>28.53864979391822</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T18" t="n">
-        <v>6.192920699081665</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1010814042287541</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.288097457166418</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H19" t="n">
-        <v>11.4523573918978</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I19" t="n">
-        <v>38.7366035300592</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J19" t="n">
-        <v>91.06849022166574</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K19" t="n">
-        <v>149.6535045689711</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L19" t="n">
-        <v>191.5049619499964</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M19" t="n">
-        <v>201.9151313992777</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N19" t="n">
-        <v>197.1140408771121</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O19" t="n">
-        <v>182.0667205820316</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P19" t="n">
-        <v>155.7895324558365</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.8605970723625</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R19" t="n">
-        <v>57.91754566495547</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S19" t="n">
-        <v>22.44802568534566</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T19" t="n">
-        <v>5.503689135165603</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07025986129998651</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.871592321138472</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H20" t="n">
-        <v>29.40869485885939</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I20" t="n">
-        <v>110.7070629606911</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J20" t="n">
-        <v>243.7228087662266</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K20" t="n">
-        <v>365.2773117200182</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L20" t="n">
-        <v>453.1588052180599</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M20" t="n">
-        <v>504.2264851591061</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N20" t="n">
-        <v>512.3853968415409</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O20" t="n">
-        <v>483.8310006982201</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P20" t="n">
-        <v>412.9385652701141</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q20" t="n">
-        <v>310.0996652693424</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R20" t="n">
-        <v>180.3826611427147</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S20" t="n">
-        <v>65.436410017943</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T20" t="n">
-        <v>12.57039538578367</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2297273856910777</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.536437344277062</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H21" t="n">
-        <v>14.8387501407811</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I21" t="n">
-        <v>52.89926821304797</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J21" t="n">
-        <v>145.1596352327728</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K21" t="n">
-        <v>248.100937299336</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L21" t="n">
-        <v>333.6023277562981</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M21" t="n">
-        <v>389.2981814863415</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N21" t="n">
-        <v>399.6017459573926</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O21" t="n">
-        <v>365.5575290131482</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P21" t="n">
-        <v>293.3921451540997</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q21" t="n">
-        <v>196.1248792449106</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R21" t="n">
-        <v>95.39389055081622</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S21" t="n">
-        <v>28.53864979391822</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T21" t="n">
-        <v>6.192920699081665</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1010814042287541</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.288097457166418</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H22" t="n">
-        <v>11.4523573918978</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I22" t="n">
-        <v>38.7366035300592</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J22" t="n">
-        <v>91.06849022166574</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K22" t="n">
-        <v>149.6535045689711</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L22" t="n">
-        <v>191.5049619499964</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M22" t="n">
-        <v>201.9151313992777</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N22" t="n">
-        <v>197.1140408771121</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O22" t="n">
-        <v>182.0667205820316</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P22" t="n">
-        <v>155.7895324558365</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.8605970723625</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R22" t="n">
-        <v>57.91754566495547</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S22" t="n">
-        <v>22.44802568534566</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T22" t="n">
-        <v>5.503689135165603</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07025986129998651</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34374,10 +34374,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L44" t="n">
-        <v>541.5957615840425</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M44" t="n">
-        <v>602.6296390934777</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N44" t="n">
         <v>612.3808166839008</v>
@@ -34386,22 +34386,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P44" t="n">
-        <v>493.5262741662297</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q44" t="n">
-        <v>370.6176784928394</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R44" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S44" t="n">
-        <v>78.20676087699489</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T44" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I45" t="n">
-        <v>63.22291242095114</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J45" t="n">
         <v>173.4885040076062</v>
@@ -34453,19 +34453,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L45" t="n">
-        <v>398.7070419616797</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M45" t="n">
-        <v>465.2723121730377</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N45" t="n">
-        <v>477.5866858152842</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O45" t="n">
-        <v>436.8985133884504</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P45" t="n">
-        <v>350.6495746475631</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q45" t="n">
         <v>234.3999545349506</v>
@@ -34474,10 +34474,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S45" t="n">
-        <v>34.10815721053858</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T45" t="n">
-        <v>7.401510384057842</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U45" t="n">
         <v>0.1208081129062761</v>
@@ -34523,22 +34523,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I46" t="n">
-        <v>46.29630948017474</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J46" t="n">
-        <v>108.8411121001568</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K46" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L46" t="n">
-        <v>228.8784296368735</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M46" t="n">
-        <v>241.3202129282505</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N46" t="n">
-        <v>235.5821576420138</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O46" t="n">
         <v>217.5982526595396</v>
@@ -34550,13 +34550,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R46" t="n">
-        <v>69.22054011153088</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S46" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T46" t="n">
-        <v>6.577770693978874</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U46" t="n">
         <v>0.08397154077419852</v>
@@ -34704,16 +34704,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.00233074738662</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46.79044561126693</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9926419400142784</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34944,10 +34944,10 @@
         <v>16.00233074738662</v>
       </c>
       <c r="M5" t="n">
-        <v>49.79500702712463</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N5" t="n">
-        <v>49.79500702712463</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O5" t="n">
         <v>38.71158060333218</v>
@@ -35023,13 +35023,13 @@
         <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
-        <v>49.79500702712463</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N6" t="n">
-        <v>21.75745062690899</v>
+        <v>21.75745062690909</v>
       </c>
       <c r="O6" t="n">
-        <v>49.79500702712463</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P6" t="n">
         <v>29.03019834022993</v>
@@ -35257,7 +35257,7 @@
         <v>21.09384010998329</v>
       </c>
       <c r="L9" t="n">
-        <v>14.93468041193783</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M9" t="n">
         <v>92.6649492891022</v>
@@ -35266,7 +35266,7 @@
         <v>92.6649492891022</v>
       </c>
       <c r="O9" t="n">
-        <v>91.5825882819677</v>
+        <v>31.36355191321351</v>
       </c>
       <c r="P9" t="n">
         <v>53.97475141920032</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K11" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L11" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N11" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O11" t="n">
-        <v>141.4033554405814</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P11" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L12" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M12" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O12" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P12" t="n">
-        <v>91.30185944855702</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764948</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M13" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N13" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O13" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>62.67690423954033</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K17" t="n">
-        <v>145.1874606750377</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L17" t="n">
-        <v>217.3923902480726</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M17" t="n">
-        <v>273.8802519318334</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N17" t="n">
-        <v>282.97233324495</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O17" t="n">
-        <v>253.7327892765334</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P17" t="n">
-        <v>181.7055695148445</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q17" t="n">
-        <v>87.7939753948929</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>18.32200856610612</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>110.259498324977</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L18" t="n">
-        <v>195.0479479764239</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M18" t="n">
-        <v>247.1641475643232</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N18" t="n">
-        <v>268.2600338740592</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O18" t="n">
-        <v>222.9612845687037</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P18" t="n">
-        <v>159.4177377397694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.14310515888909</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>20.64024639843569</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>56.6202856687581</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M19" t="n">
-        <v>62.98934745167261</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N19" t="n">
-        <v>69.42849641187888</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O19" t="n">
-        <v>43.6101821301888</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P19" t="n">
-        <v>18.06152840668892</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>62.67690423954033</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K20" t="n">
-        <v>145.1874606750377</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L20" t="n">
-        <v>217.3923902480726</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M20" t="n">
-        <v>273.8802519318334</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N20" t="n">
-        <v>282.97233324495</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O20" t="n">
-        <v>253.7327892765334</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P20" t="n">
-        <v>181.7055695148445</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q20" t="n">
-        <v>87.7939753948929</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>18.32200856610612</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>110.259498324977</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L21" t="n">
-        <v>195.0479479764239</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M21" t="n">
-        <v>247.1641475643232</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N21" t="n">
-        <v>268.2600338740592</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O21" t="n">
-        <v>222.9612845687037</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P21" t="n">
-        <v>159.4177377397694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.14310515888909</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.64024639843569</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>56.6202856687581</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M22" t="n">
-        <v>62.98934745167261</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N22" t="n">
-        <v>69.42849641187888</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O22" t="n">
-        <v>43.6101821301888</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P22" t="n">
-        <v>18.06152840668892</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>110.2410322142394</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K44" t="n">
-        <v>216.4737587808905</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L44" t="n">
-        <v>305.8293466140553</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M44" t="n">
-        <v>372.283405866205</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N44" t="n">
         <v>382.9677530873099</v>
@@ -38034,7 +38034,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P44" t="n">
-        <v>262.2932784109601</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q44" t="n">
         <v>148.31198861839</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>46.65087734093947</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K45" t="n">
         <v>158.6780472169987</v>
@@ -38104,7 +38104,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M45" t="n">
-        <v>323.1382782510194</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N45" t="n">
         <v>346.2449737319509</v>
@@ -38116,7 +38116,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.41818044892904</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,19 +38177,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>49.84612367850721</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L46" t="n">
-        <v>93.99375335563525</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M46" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N46" t="n">
-        <v>107.8966131767806</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O46" t="n">
-        <v>79.14171420769679</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P46" t="n">
         <v>48.46489236084162</v>
